--- a/01陕西凯德隆装饰工程有限公司_网站设计方案.xlsx
+++ b/01陕西凯德隆装饰工程有限公司_网站设计方案.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01_需求" sheetId="1" r:id="rId1"/>
     <sheet name="02_外观" sheetId="2" r:id="rId2"/>
     <sheet name="附件1" sheetId="3" r:id="rId3"/>
     <sheet name="注意事项" sheetId="4" r:id="rId4"/>
+    <sheet name="技巧" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01_需求'!$A$1:$AX$34</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
   <si>
     <t>作成者：唐灵</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,12 +414,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.后台登录页面修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,8 +896,107 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="514350"/>
+          <a:ext cx="6457950" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="6181725"/>
+          <a:ext cx="6334125" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -966,7 +1070,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1001,7 +1104,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1177,14 +1279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:64">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1238,7 +1340,7 @@
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
     </row>
-    <row r="2" spans="1:64" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -1294,7 +1396,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:64" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>11</v>
@@ -1350,7 +1452,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:64">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1407,7 +1509,7 @@
       <c r="AZ4" s="1"/>
       <c r="BL4" s="3"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:64">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1464,7 +1566,7 @@
       <c r="AZ5" s="1"/>
       <c r="BL5" s="3"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:64">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1518,7 +1620,7 @@
       <c r="AY6" s="1"/>
       <c r="AZ6" s="1"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:64">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1572,7 +1674,7 @@
       <c r="AY7" s="1"/>
       <c r="AZ7" s="1"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:64">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -1628,62 +1730,62 @@
       <c r="AY8" s="1"/>
       <c r="AZ8" s="1"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:64">
       <c r="C10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:64">
       <c r="C12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:64">
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:64">
       <c r="C16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:4">
       <c r="D17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:4">
       <c r="C19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:4">
       <c r="D20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:4">
       <c r="C22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:4">
       <c r="D23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:4">
       <c r="C25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:4">
       <c r="D26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:4">
       <c r="D27" t="s">
         <v>9</v>
       </c>
@@ -1699,14 +1801,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AZ7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:52" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -1762,7 +1864,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:52" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -1818,7 +1920,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:52">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1874,7 +1976,7 @@
       <c r="AY4" s="1"/>
       <c r="AZ4" s="1"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:52">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1930,7 +2032,7 @@
       <c r="AY5" s="1"/>
       <c r="AZ5" s="1"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:52">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1942,16 +2044,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:BL164"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A142" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:64" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" ht="20.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -2007,7 +2109,7 @@
       <c r="AY2" s="1"/>
       <c r="AZ2" s="1"/>
     </row>
-    <row r="3" spans="1:64" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="20.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
@@ -2063,7 +2165,7 @@
       <c r="AY3" s="1"/>
       <c r="AZ3" s="1"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:64">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2119,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:64">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2175,12 +2277,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:64">
       <c r="B8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:64">
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
         <v>16</v>
@@ -2227,7 +2329,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:64">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2260,7 +2362,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:64">
       <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
@@ -2301,7 +2403,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:64">
       <c r="G13" s="8" t="s">
         <v>36</v>
       </c>
@@ -2339,7 +2441,7 @@
       <c r="AC13" s="9"/>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:64">
       <c r="G14" s="8" t="s">
         <v>37</v>
       </c>
@@ -2353,7 +2455,7 @@
       <c r="M14" s="9"/>
       <c r="N14" s="10"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:64">
       <c r="G15" s="8" t="s">
         <v>35</v>
       </c>
@@ -2361,29 +2463,29 @@
       <c r="I15" s="9"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:64" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:64" s="19" customFormat="1">
       <c r="G16" s="20"/>
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
     </row>
-    <row r="17" spans="2:33" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:33" s="19" customFormat="1">
       <c r="G17" s="20"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:33">
       <c r="B18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:33">
       <c r="C20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:33">
       <c r="F22" s="8" t="s">
         <v>16</v>
       </c>
@@ -2427,7 +2529,7 @@
       <c r="AF22" s="6"/>
       <c r="AG22" s="7"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:33">
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -2457,7 +2559,7 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="13"/>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:33">
       <c r="F25" s="14" t="s">
         <v>29</v>
       </c>
@@ -2489,7 +2591,7 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="15"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:33">
       <c r="F26" s="14"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2519,7 +2621,7 @@
       <c r="AF26" s="1"/>
       <c r="AG26" s="15"/>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:33">
       <c r="F27" s="14"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2549,7 +2651,7 @@
       <c r="AF27" s="1"/>
       <c r="AG27" s="15"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:33">
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
@@ -2579,7 +2681,7 @@
       <c r="AF28" s="17"/>
       <c r="AG28" s="18"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:33">
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
@@ -2609,7 +2711,7 @@
       <c r="AF30" s="12"/>
       <c r="AG30" s="13"/>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:33">
       <c r="F31" s="14" t="s">
         <v>42</v>
       </c>
@@ -2641,7 +2743,7 @@
       <c r="AF31" s="1"/>
       <c r="AG31" s="15"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:33">
       <c r="F32" s="14"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2671,7 +2773,7 @@
       <c r="AF32" s="1"/>
       <c r="AG32" s="15"/>
     </row>
-    <row r="33" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:33">
       <c r="F33" s="14"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2701,7 +2803,7 @@
       <c r="AF33" s="1"/>
       <c r="AG33" s="15"/>
     </row>
-    <row r="34" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:33">
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -2731,7 +2833,7 @@
       <c r="AF34" s="17"/>
       <c r="AG34" s="18"/>
     </row>
-    <row r="36" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:33">
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
@@ -2761,7 +2863,7 @@
       <c r="AF36" s="12"/>
       <c r="AG36" s="13"/>
     </row>
-    <row r="37" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:33">
       <c r="F37" s="14" t="s">
         <v>30</v>
       </c>
@@ -2793,7 +2895,7 @@
       <c r="AF37" s="1"/>
       <c r="AG37" s="15"/>
     </row>
-    <row r="38" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:33">
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -2823,7 +2925,7 @@
       <c r="AF38" s="1"/>
       <c r="AG38" s="15"/>
     </row>
-    <row r="39" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:33">
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -2853,7 +2955,7 @@
       <c r="AF39" s="1"/>
       <c r="AG39" s="15"/>
     </row>
-    <row r="40" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="40" spans="6:33">
       <c r="F40" s="16"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
@@ -2883,7 +2985,7 @@
       <c r="AF40" s="17"/>
       <c r="AG40" s="18"/>
     </row>
-    <row r="42" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="42" spans="6:33">
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
@@ -2913,7 +3015,7 @@
       <c r="AF42" s="12"/>
       <c r="AG42" s="13"/>
     </row>
-    <row r="43" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:33">
       <c r="F43" s="14" t="s">
         <v>31</v>
       </c>
@@ -2945,7 +3047,7 @@
       <c r="AF43" s="1"/>
       <c r="AG43" s="15"/>
     </row>
-    <row r="44" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="44" spans="6:33">
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -2975,7 +3077,7 @@
       <c r="AF44" s="1"/>
       <c r="AG44" s="15"/>
     </row>
-    <row r="45" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="45" spans="6:33">
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -3005,7 +3107,7 @@
       <c r="AF45" s="1"/>
       <c r="AG45" s="15"/>
     </row>
-    <row r="46" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="46" spans="6:33">
       <c r="F46" s="16"/>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -3035,7 +3137,7 @@
       <c r="AF46" s="17"/>
       <c r="AG46" s="18"/>
     </row>
-    <row r="48" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="48" spans="6:33">
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
       <c r="H48" s="12"/>
@@ -3065,7 +3167,7 @@
       <c r="AF48" s="12"/>
       <c r="AG48" s="13"/>
     </row>
-    <row r="49" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:33">
       <c r="F49" s="14" t="s">
         <v>32</v>
       </c>
@@ -3097,7 +3199,7 @@
       <c r="AF49" s="1"/>
       <c r="AG49" s="15"/>
     </row>
-    <row r="50" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:33">
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3127,7 +3229,7 @@
       <c r="AF50" s="1"/>
       <c r="AG50" s="15"/>
     </row>
-    <row r="51" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:33">
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3157,7 +3259,7 @@
       <c r="AF51" s="1"/>
       <c r="AG51" s="15"/>
     </row>
-    <row r="52" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:33">
       <c r="F52" s="16"/>
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
@@ -3187,12 +3289,12 @@
       <c r="AF52" s="17"/>
       <c r="AG52" s="18"/>
     </row>
-    <row r="55" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:33">
       <c r="C55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:33">
       <c r="F57" s="5" t="s">
         <v>33</v>
       </c>
@@ -3236,7 +3338,7 @@
       <c r="AF57" s="6"/>
       <c r="AG57" s="7"/>
     </row>
-    <row r="59" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:33">
       <c r="F59" s="8" t="s">
         <v>34</v>
       </c>
@@ -3262,7 +3364,7 @@
       <c r="T59" s="9"/>
       <c r="U59" s="10"/>
     </row>
-    <row r="61" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:33">
       <c r="F61" s="11"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -3292,7 +3394,7 @@
       <c r="AF61" s="12"/>
       <c r="AG61" s="13"/>
     </row>
-    <row r="62" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:33">
       <c r="F62" s="14" t="s">
         <v>46</v>
       </c>
@@ -3324,7 +3426,7 @@
       <c r="AF62" s="1"/>
       <c r="AG62" s="15"/>
     </row>
-    <row r="63" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:33">
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3354,7 +3456,7 @@
       <c r="AF63" s="1"/>
       <c r="AG63" s="15"/>
     </row>
-    <row r="64" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:33">
       <c r="F64" s="14"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -3384,7 +3486,7 @@
       <c r="AF64" s="1"/>
       <c r="AG64" s="15"/>
     </row>
-    <row r="65" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:33">
       <c r="F65" s="16"/>
       <c r="G65" s="17"/>
       <c r="H65" s="17"/>
@@ -3414,12 +3516,12 @@
       <c r="AF65" s="17"/>
       <c r="AG65" s="18"/>
     </row>
-    <row r="68" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:33">
       <c r="C68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:33">
       <c r="F70" s="5" t="s">
         <v>33</v>
       </c>
@@ -3463,7 +3565,7 @@
       <c r="AF70" s="6"/>
       <c r="AG70" s="7"/>
     </row>
-    <row r="72" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:33">
       <c r="F72" s="8" t="s">
         <v>67</v>
       </c>
@@ -3483,7 +3585,7 @@
       <c r="P72" s="9"/>
       <c r="Q72" s="10"/>
     </row>
-    <row r="74" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="74" spans="3:33">
       <c r="F74" s="11"/>
       <c r="G74" s="12"/>
       <c r="H74" s="12"/>
@@ -3513,7 +3615,7 @@
       <c r="AF74" s="12"/>
       <c r="AG74" s="13"/>
     </row>
-    <row r="75" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:33">
       <c r="F75" s="14" t="s">
         <v>43</v>
       </c>
@@ -3545,7 +3647,7 @@
       <c r="AF75" s="1"/>
       <c r="AG75" s="15"/>
     </row>
-    <row r="76" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:33">
       <c r="F76" s="14" t="s">
         <v>44</v>
       </c>
@@ -3577,7 +3679,7 @@
       <c r="AF76" s="1"/>
       <c r="AG76" s="15"/>
     </row>
-    <row r="77" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:33">
       <c r="F77" s="14"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -3607,7 +3709,7 @@
       <c r="AF77" s="1"/>
       <c r="AG77" s="15"/>
     </row>
-    <row r="78" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:33">
       <c r="F78" s="14"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -3637,7 +3739,7 @@
       <c r="AF78" s="1"/>
       <c r="AG78" s="15"/>
     </row>
-    <row r="79" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="79" spans="3:33">
       <c r="F79" s="14"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -3667,7 +3769,7 @@
       <c r="AF79" s="1"/>
       <c r="AG79" s="15"/>
     </row>
-    <row r="80" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:33">
       <c r="F80" s="14"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -3697,7 +3799,7 @@
       <c r="AF80" s="1"/>
       <c r="AG80" s="15"/>
     </row>
-    <row r="81" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="81" spans="6:33">
       <c r="F81" s="14"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -3727,7 +3829,7 @@
       <c r="AF81" s="1"/>
       <c r="AG81" s="15"/>
     </row>
-    <row r="82" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="82" spans="6:33">
       <c r="F82" s="14"/>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -3757,7 +3859,7 @@
       <c r="AF82" s="1"/>
       <c r="AG82" s="15"/>
     </row>
-    <row r="83" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="83" spans="6:33">
       <c r="F83" s="14"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -3787,7 +3889,7 @@
       <c r="AF83" s="1"/>
       <c r="AG83" s="15"/>
     </row>
-    <row r="84" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="84" spans="6:33">
       <c r="F84" s="14"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -3817,7 +3919,7 @@
       <c r="AF84" s="1"/>
       <c r="AG84" s="15"/>
     </row>
-    <row r="85" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="85" spans="6:33">
       <c r="F85" s="14"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -3847,7 +3949,7 @@
       <c r="AF85" s="1"/>
       <c r="AG85" s="15"/>
     </row>
-    <row r="86" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="86" spans="6:33">
       <c r="F86" s="14"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -3877,7 +3979,7 @@
       <c r="AF86" s="1"/>
       <c r="AG86" s="15"/>
     </row>
-    <row r="87" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="87" spans="6:33">
       <c r="F87" s="14"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -3907,7 +4009,7 @@
       <c r="AF87" s="1"/>
       <c r="AG87" s="15"/>
     </row>
-    <row r="88" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="88" spans="6:33">
       <c r="F88" s="14"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -3937,7 +4039,7 @@
       <c r="AF88" s="1"/>
       <c r="AG88" s="15"/>
     </row>
-    <row r="89" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="89" spans="6:33">
       <c r="F89" s="14"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -3967,7 +4069,7 @@
       <c r="AF89" s="1"/>
       <c r="AG89" s="15"/>
     </row>
-    <row r="90" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="90" spans="6:33">
       <c r="F90" s="14"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -3997,7 +4099,7 @@
       <c r="AF90" s="1"/>
       <c r="AG90" s="15"/>
     </row>
-    <row r="91" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="91" spans="6:33">
       <c r="F91" s="14"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -4027,7 +4129,7 @@
       <c r="AF91" s="1"/>
       <c r="AG91" s="15"/>
     </row>
-    <row r="92" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="92" spans="6:33">
       <c r="F92" s="14"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -4057,7 +4159,7 @@
       <c r="AF92" s="1"/>
       <c r="AG92" s="15"/>
     </row>
-    <row r="93" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="93" spans="6:33">
       <c r="F93" s="14"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -4087,7 +4189,7 @@
       <c r="AF93" s="1"/>
       <c r="AG93" s="15"/>
     </row>
-    <row r="94" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="94" spans="6:33">
       <c r="F94" s="14"/>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -4117,7 +4219,7 @@
       <c r="AF94" s="1"/>
       <c r="AG94" s="15"/>
     </row>
-    <row r="95" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="95" spans="6:33">
       <c r="F95" s="14"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -4147,7 +4249,7 @@
       <c r="AF95" s="1"/>
       <c r="AG95" s="15"/>
     </row>
-    <row r="96" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="96" spans="6:33">
       <c r="F96" s="14"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -4177,7 +4279,7 @@
       <c r="AF96" s="1"/>
       <c r="AG96" s="15"/>
     </row>
-    <row r="97" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="97" spans="6:33">
       <c r="F97" s="14"/>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -4207,7 +4309,7 @@
       <c r="AF97" s="1"/>
       <c r="AG97" s="15"/>
     </row>
-    <row r="98" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="98" spans="6:33">
       <c r="F98" s="14"/>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -4237,7 +4339,7 @@
       <c r="AF98" s="1"/>
       <c r="AG98" s="15"/>
     </row>
-    <row r="99" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="99" spans="6:33">
       <c r="F99" s="14"/>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -4267,7 +4369,7 @@
       <c r="AF99" s="1"/>
       <c r="AG99" s="15"/>
     </row>
-    <row r="100" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="100" spans="6:33">
       <c r="F100" s="14"/>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
@@ -4297,7 +4399,7 @@
       <c r="AF100" s="1"/>
       <c r="AG100" s="15"/>
     </row>
-    <row r="101" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="101" spans="6:33">
       <c r="F101" s="14"/>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -4327,7 +4429,7 @@
       <c r="AF101" s="1"/>
       <c r="AG101" s="15"/>
     </row>
-    <row r="102" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="102" spans="6:33">
       <c r="F102" s="14"/>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -4357,7 +4459,7 @@
       <c r="AF102" s="1"/>
       <c r="AG102" s="15"/>
     </row>
-    <row r="103" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="103" spans="6:33">
       <c r="F103" s="14"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -4387,7 +4489,7 @@
       <c r="AF103" s="1"/>
       <c r="AG103" s="15"/>
     </row>
-    <row r="104" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="104" spans="6:33">
       <c r="F104" s="14"/>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
@@ -4417,7 +4519,7 @@
       <c r="AF104" s="1"/>
       <c r="AG104" s="15"/>
     </row>
-    <row r="105" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="105" spans="6:33">
       <c r="F105" s="14"/>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -4447,7 +4549,7 @@
       <c r="AF105" s="1"/>
       <c r="AG105" s="15"/>
     </row>
-    <row r="106" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="106" spans="6:33">
       <c r="F106" s="14"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
@@ -4477,7 +4579,7 @@
       <c r="AF106" s="1"/>
       <c r="AG106" s="15"/>
     </row>
-    <row r="107" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="107" spans="6:33">
       <c r="F107" s="14"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -4507,7 +4609,7 @@
       <c r="AF107" s="1"/>
       <c r="AG107" s="15"/>
     </row>
-    <row r="108" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="108" spans="6:33">
       <c r="F108" s="14"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -4537,7 +4639,7 @@
       <c r="AF108" s="1"/>
       <c r="AG108" s="15"/>
     </row>
-    <row r="109" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="109" spans="6:33">
       <c r="F109" s="14"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -4567,7 +4669,7 @@
       <c r="AF109" s="1"/>
       <c r="AG109" s="15"/>
     </row>
-    <row r="110" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="110" spans="6:33">
       <c r="F110" s="14"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -4597,7 +4699,7 @@
       <c r="AF110" s="1"/>
       <c r="AG110" s="15"/>
     </row>
-    <row r="111" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="111" spans="6:33">
       <c r="F111" s="14"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -4627,7 +4729,7 @@
       <c r="AF111" s="1"/>
       <c r="AG111" s="15"/>
     </row>
-    <row r="112" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="112" spans="6:33">
       <c r="F112" s="16"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
@@ -4657,12 +4759,12 @@
       <c r="AF112" s="17"/>
       <c r="AG112" s="18"/>
     </row>
-    <row r="115" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:33">
       <c r="C115" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:33">
       <c r="F117" s="5" t="s">
         <v>33</v>
       </c>
@@ -4706,7 +4808,7 @@
       <c r="AF117" s="6"/>
       <c r="AG117" s="7"/>
     </row>
-    <row r="119" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:33">
       <c r="F119" s="8" t="s">
         <v>22</v>
       </c>
@@ -4720,7 +4822,7 @@
       <c r="L119" s="9"/>
       <c r="M119" s="10"/>
     </row>
-    <row r="121" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:33">
       <c r="F121" s="11"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
@@ -4750,7 +4852,7 @@
       <c r="AF121" s="12"/>
       <c r="AG121" s="13"/>
     </row>
-    <row r="122" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:33">
       <c r="F122" s="14" t="s">
         <v>48</v>
       </c>
@@ -4782,7 +4884,7 @@
       <c r="AF122" s="1"/>
       <c r="AG122" s="15"/>
     </row>
-    <row r="123" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:33">
       <c r="F123" s="14"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -4812,7 +4914,7 @@
       <c r="AF123" s="1"/>
       <c r="AG123" s="15"/>
     </row>
-    <row r="124" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:33">
       <c r="F124" s="14"/>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -4842,7 +4944,7 @@
       <c r="AF124" s="1"/>
       <c r="AG124" s="15"/>
     </row>
-    <row r="125" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:33">
       <c r="F125" s="16"/>
       <c r="G125" s="17"/>
       <c r="H125" s="17"/>
@@ -4872,12 +4974,12 @@
       <c r="AF125" s="17"/>
       <c r="AG125" s="18"/>
     </row>
-    <row r="128" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="128" spans="3:33">
       <c r="C128" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:33">
       <c r="F130" s="5" t="s">
         <v>33</v>
       </c>
@@ -4921,7 +5023,7 @@
       <c r="AF130" s="6"/>
       <c r="AG130" s="7"/>
     </row>
-    <row r="132" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:33">
       <c r="F132" s="8" t="s">
         <v>23</v>
       </c>
@@ -4935,7 +5037,7 @@
       <c r="L132" s="9"/>
       <c r="M132" s="10"/>
     </row>
-    <row r="134" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:33">
       <c r="F134" s="11"/>
       <c r="G134" s="12"/>
       <c r="H134" s="12"/>
@@ -4965,7 +5067,7 @@
       <c r="AF134" s="12"/>
       <c r="AG134" s="13"/>
     </row>
-    <row r="135" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="135" spans="3:33">
       <c r="F135" s="14" t="s">
         <v>49</v>
       </c>
@@ -4997,7 +5099,7 @@
       <c r="AF135" s="1"/>
       <c r="AG135" s="15"/>
     </row>
-    <row r="136" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="136" spans="3:33">
       <c r="F136" s="14"/>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -5027,7 +5129,7 @@
       <c r="AF136" s="1"/>
       <c r="AG136" s="15"/>
     </row>
-    <row r="137" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="137" spans="3:33">
       <c r="F137" s="14"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -5057,7 +5159,7 @@
       <c r="AF137" s="1"/>
       <c r="AG137" s="15"/>
     </row>
-    <row r="138" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="138" spans="3:33">
       <c r="F138" s="16"/>
       <c r="G138" s="17"/>
       <c r="H138" s="17"/>
@@ -5087,12 +5189,12 @@
       <c r="AF138" s="17"/>
       <c r="AG138" s="18"/>
     </row>
-    <row r="141" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="141" spans="3:33">
       <c r="C141" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="143" spans="3:33">
       <c r="F143" s="5" t="s">
         <v>33</v>
       </c>
@@ -5136,7 +5238,7 @@
       <c r="AF143" s="6"/>
       <c r="AG143" s="7"/>
     </row>
-    <row r="145" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="145" spans="3:33">
       <c r="F145" s="8" t="s">
         <v>53</v>
       </c>
@@ -5150,7 +5252,7 @@
       <c r="L145" s="9"/>
       <c r="M145" s="10"/>
     </row>
-    <row r="147" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="147" spans="3:33">
       <c r="F147" s="11"/>
       <c r="G147" s="12"/>
       <c r="H147" s="12"/>
@@ -5180,7 +5282,7 @@
       <c r="AF147" s="12"/>
       <c r="AG147" s="13"/>
     </row>
-    <row r="148" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="148" spans="3:33">
       <c r="F148" s="14" t="s">
         <v>55</v>
       </c>
@@ -5212,7 +5314,7 @@
       <c r="AF148" s="1"/>
       <c r="AG148" s="15"/>
     </row>
-    <row r="149" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="149" spans="3:33">
       <c r="F149" s="14"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -5242,7 +5344,7 @@
       <c r="AF149" s="1"/>
       <c r="AG149" s="15"/>
     </row>
-    <row r="150" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="150" spans="3:33">
       <c r="F150" s="14"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -5272,7 +5374,7 @@
       <c r="AF150" s="1"/>
       <c r="AG150" s="15"/>
     </row>
-    <row r="151" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="151" spans="3:33">
       <c r="F151" s="16"/>
       <c r="G151" s="17"/>
       <c r="H151" s="17"/>
@@ -5302,12 +5404,12 @@
       <c r="AF151" s="17"/>
       <c r="AG151" s="18"/>
     </row>
-    <row r="154" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="154" spans="3:33">
       <c r="C154" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="156" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="156" spans="3:33">
       <c r="F156" s="5" t="s">
         <v>33</v>
       </c>
@@ -5351,7 +5453,7 @@
       <c r="AF156" s="9"/>
       <c r="AG156" s="10"/>
     </row>
-    <row r="158" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="158" spans="3:33">
       <c r="F158" s="8" t="s">
         <v>26</v>
       </c>
@@ -5365,7 +5467,7 @@
       <c r="L158" s="9"/>
       <c r="M158" s="10"/>
     </row>
-    <row r="160" spans="3:33" x14ac:dyDescent="0.15">
+    <row r="160" spans="3:33">
       <c r="F160" s="11"/>
       <c r="G160" s="12"/>
       <c r="H160" s="12"/>
@@ -5395,7 +5497,7 @@
       <c r="AF160" s="12"/>
       <c r="AG160" s="13"/>
     </row>
-    <row r="161" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="161" spans="6:33">
       <c r="F161" s="14" t="s">
         <v>56</v>
       </c>
@@ -5427,7 +5529,7 @@
       <c r="AF161" s="1"/>
       <c r="AG161" s="15"/>
     </row>
-    <row r="162" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="162" spans="6:33">
       <c r="F162" s="14"/>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
@@ -5457,7 +5559,7 @@
       <c r="AF162" s="1"/>
       <c r="AG162" s="15"/>
     </row>
-    <row r="163" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="163" spans="6:33">
       <c r="F163" s="14"/>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -5487,7 +5589,7 @@
       <c r="AF163" s="1"/>
       <c r="AG163" s="15"/>
     </row>
-    <row r="164" spans="6:33" x14ac:dyDescent="0.15">
+    <row r="164" spans="6:33">
       <c r="F164" s="16"/>
       <c r="G164" s="17"/>
       <c r="H164" s="17"/>
@@ -5529,49 +5631,49 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" s="22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:2">
       <c r="B11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:2">
       <c r="B12" s="22" t="s">
         <v>84</v>
       </c>
@@ -5581,4 +5683,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>